--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi3</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H2">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.9400872075381</v>
+        <v>13.4050635</v>
       </c>
       <c r="N2">
-        <v>12.9400872075381</v>
+        <v>26.810127</v>
       </c>
       <c r="O2">
-        <v>0.1661367278167985</v>
+        <v>0.1670855956838449</v>
       </c>
       <c r="P2">
-        <v>0.1661367278167985</v>
+        <v>0.123134816056884</v>
       </c>
       <c r="Q2">
-        <v>6.595134373822297</v>
+        <v>7.6819459045005</v>
       </c>
       <c r="R2">
-        <v>6.595134373822297</v>
+        <v>46.091675427003</v>
       </c>
       <c r="S2">
-        <v>0.1661367278167985</v>
+        <v>0.1460097604377235</v>
       </c>
       <c r="T2">
-        <v>0.1661367278167985</v>
+        <v>0.1123256863464327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H3">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7689265264943</v>
+        <v>13.60032866666666</v>
       </c>
       <c r="N3">
-        <v>12.7689265264943</v>
+        <v>40.80098599999999</v>
       </c>
       <c r="O3">
-        <v>0.1639392097457497</v>
+        <v>0.1695194518672792</v>
       </c>
       <c r="P3">
-        <v>0.1639392097457497</v>
+        <v>0.1873926932927061</v>
       </c>
       <c r="Q3">
-        <v>6.507899436924714</v>
+        <v>7.793845146705999</v>
       </c>
       <c r="R3">
-        <v>6.507899436924714</v>
+        <v>70.14460632035399</v>
       </c>
       <c r="S3">
-        <v>0.1639392097457497</v>
+        <v>0.1481366149809214</v>
       </c>
       <c r="T3">
-        <v>0.1639392097457497</v>
+        <v>0.1709428215711619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H4">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.1994418496756</v>
+        <v>17.38021633333333</v>
       </c>
       <c r="N4">
-        <v>17.1994418496756</v>
+        <v>52.140649</v>
       </c>
       <c r="O4">
-        <v>0.2208222358436525</v>
+        <v>0.2166333489706401</v>
       </c>
       <c r="P4">
-        <v>0.2208222358436525</v>
+        <v>0.2394740324692066</v>
       </c>
       <c r="Q4">
-        <v>8.765986529617392</v>
+        <v>9.959958912629</v>
       </c>
       <c r="R4">
-        <v>8.765986529617392</v>
+        <v>89.63963021366099</v>
       </c>
       <c r="S4">
-        <v>0.2208222358436525</v>
+        <v>0.1893076614807389</v>
       </c>
       <c r="T4">
-        <v>0.2208222358436525</v>
+        <v>0.2184523104076843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H5">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.4797870443223</v>
+        <v>13.54176933333333</v>
       </c>
       <c r="N5">
-        <v>13.4797870443223</v>
+        <v>40.625308</v>
       </c>
       <c r="O5">
-        <v>0.173065890151528</v>
+        <v>0.1687895470001483</v>
       </c>
       <c r="P5">
-        <v>0.173065890151528</v>
+        <v>0.1865858310866733</v>
       </c>
       <c r="Q5">
-        <v>6.870201526619249</v>
+        <v>7.760286959468001</v>
       </c>
       <c r="R5">
-        <v>6.870201526619249</v>
+        <v>69.842582635212</v>
       </c>
       <c r="S5">
-        <v>0.173065890151528</v>
+        <v>0.1474987788206233</v>
       </c>
       <c r="T5">
-        <v>0.173065890151528</v>
+        <v>0.1702067880594233</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.509666918626358</v>
+        <v>0.573063</v>
       </c>
       <c r="H6">
-        <v>0.509666918626358</v>
+        <v>1.719189</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8738620456188184</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9122171124577967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.2005753730834</v>
+        <v>12.75011133333333</v>
       </c>
       <c r="N6">
-        <v>12.2005753730834</v>
+        <v>38.250334</v>
       </c>
       <c r="O6">
-        <v>0.1566421954857852</v>
+        <v>0.1589220332425387</v>
       </c>
       <c r="P6">
-        <v>0.1566421954857852</v>
+        <v>0.175677938459761</v>
       </c>
       <c r="Q6">
-        <v>6.218229655868045</v>
+        <v>7.306617051014</v>
       </c>
       <c r="R6">
-        <v>6.218229655868045</v>
+        <v>65.759553459126</v>
       </c>
       <c r="S6">
-        <v>0.1566421954857852</v>
+        <v>0.1388759330632267</v>
       </c>
       <c r="T6">
-        <v>0.1566421954857852</v>
+        <v>0.1602564217443017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.573063</v>
+      </c>
+      <c r="H7">
+        <v>1.719189</v>
+      </c>
+      <c r="I7">
+        <v>0.8738620456188184</v>
+      </c>
+      <c r="J7">
+        <v>0.9122171124577967</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.551231</v>
+      </c>
+      <c r="N7">
+        <v>19.102462</v>
+      </c>
+      <c r="O7">
+        <v>0.1190500232355487</v>
+      </c>
+      <c r="P7">
+        <v>0.08773468863476909</v>
+      </c>
+      <c r="Q7">
+        <v>5.473457090553</v>
+      </c>
+      <c r="R7">
+        <v>32.84074254331799</v>
+      </c>
+      <c r="S7">
+        <v>0.1040332968355844</v>
+      </c>
+      <c r="T7">
+        <v>0.08003308432879293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.082719</v>
+      </c>
+      <c r="H8">
+        <v>0.165438</v>
+      </c>
+      <c r="I8">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J8">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.4050635</v>
+      </c>
+      <c r="N8">
+        <v>26.810127</v>
+      </c>
+      <c r="O8">
+        <v>0.1670855956838449</v>
+      </c>
+      <c r="P8">
+        <v>0.123134816056884</v>
+      </c>
+      <c r="Q8">
+        <v>1.1088534476565</v>
+      </c>
+      <c r="R8">
+        <v>4.435413790626</v>
+      </c>
+      <c r="S8">
+        <v>0.02107583524612137</v>
+      </c>
+      <c r="T8">
+        <v>0.01080912971045134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.082719</v>
+      </c>
+      <c r="H9">
+        <v>0.165438</v>
+      </c>
+      <c r="I9">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J9">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.60032866666666</v>
+      </c>
+      <c r="N9">
+        <v>40.80098599999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1695194518672792</v>
+      </c>
+      <c r="P9">
+        <v>0.1873926932927061</v>
+      </c>
+      <c r="Q9">
+        <v>1.125005586978</v>
+      </c>
+      <c r="R9">
+        <v>6.750033521867999</v>
+      </c>
+      <c r="S9">
+        <v>0.02138283688635777</v>
+      </c>
+      <c r="T9">
+        <v>0.01644987172154421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.082719</v>
+      </c>
+      <c r="H10">
+        <v>0.165438</v>
+      </c>
+      <c r="I10">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J10">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.38021633333333</v>
+      </c>
+      <c r="N10">
+        <v>52.140649</v>
+      </c>
+      <c r="O10">
+        <v>0.2166333489706401</v>
+      </c>
+      <c r="P10">
+        <v>0.2394740324692066</v>
+      </c>
+      <c r="Q10">
+        <v>1.437674114877</v>
+      </c>
+      <c r="R10">
+        <v>8.626044689262001</v>
+      </c>
+      <c r="S10">
+        <v>0.02732568748990118</v>
+      </c>
+      <c r="T10">
+        <v>0.02102172206152231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.082719</v>
+      </c>
+      <c r="H11">
+        <v>0.165438</v>
+      </c>
+      <c r="I11">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J11">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.54176933333333</v>
+      </c>
+      <c r="N11">
+        <v>40.625308</v>
+      </c>
+      <c r="O11">
+        <v>0.1687895470001483</v>
+      </c>
+      <c r="P11">
+        <v>0.1865858310866733</v>
+      </c>
+      <c r="Q11">
+        <v>1.120161617484</v>
+      </c>
+      <c r="R11">
+        <v>6.720969704904001</v>
+      </c>
+      <c r="S11">
+        <v>0.02129076817952501</v>
+      </c>
+      <c r="T11">
+        <v>0.01637904302724998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.509666918626358</v>
-      </c>
-      <c r="H7">
-        <v>0.509666918626358</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.299361076346701</v>
-      </c>
-      <c r="N7">
-        <v>9.299361076346701</v>
-      </c>
-      <c r="O7">
-        <v>0.119393740956486</v>
-      </c>
-      <c r="P7">
-        <v>0.119393740956486</v>
-      </c>
-      <c r="Q7">
-        <v>4.739576704975515</v>
-      </c>
-      <c r="R7">
-        <v>4.739576704975515</v>
-      </c>
-      <c r="S7">
-        <v>0.119393740956486</v>
-      </c>
-      <c r="T7">
-        <v>0.119393740956486</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.082719</v>
+      </c>
+      <c r="H12">
+        <v>0.165438</v>
+      </c>
+      <c r="I12">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J12">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.75011133333333</v>
+      </c>
+      <c r="N12">
+        <v>38.250334</v>
+      </c>
+      <c r="O12">
+        <v>0.1589220332425387</v>
+      </c>
+      <c r="P12">
+        <v>0.175677938459761</v>
+      </c>
+      <c r="Q12">
+        <v>1.054676459382</v>
+      </c>
+      <c r="R12">
+        <v>6.328058756292</v>
+      </c>
+      <c r="S12">
+        <v>0.02004610017931196</v>
+      </c>
+      <c r="T12">
+        <v>0.01542151671545931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.082719</v>
+      </c>
+      <c r="H13">
+        <v>0.165438</v>
+      </c>
+      <c r="I13">
+        <v>0.1261379543811816</v>
+      </c>
+      <c r="J13">
+        <v>0.08778288754220331</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.551231</v>
+      </c>
+      <c r="N13">
+        <v>19.102462</v>
+      </c>
+      <c r="O13">
+        <v>0.1190500232355487</v>
+      </c>
+      <c r="P13">
+        <v>0.08773468863476909</v>
+      </c>
+      <c r="Q13">
+        <v>0.790068277089</v>
+      </c>
+      <c r="R13">
+        <v>3.160273108356</v>
+      </c>
+      <c r="S13">
+        <v>0.01501672639996424</v>
+      </c>
+      <c r="T13">
+        <v>0.007701604305976158</v>
       </c>
     </row>
   </sheetData>
